--- a/仕様書/サウンド仕様書.xlsx
+++ b/仕様書/サウンド仕様書.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
   <si>
     <t>サウンド関連</t>
     <rPh sb="4" eb="6">
@@ -3024,7 +3024,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3675,7 +3675,9 @@
       <c r="E21" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="20" t="s">
         <v>23</v>
       </c>
@@ -3789,7 +3791,9 @@
       <c r="E26" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="20" t="s">
         <v>23</v>
       </c>
